--- a/kittyserver/gametools/parseExcelTool/Excel/Param.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/Param.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="参数表_3_param" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -213,8 +218,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -224,8 +228,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -448,8 +451,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -525,8 +527,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -538,19 +539,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -558,7 +559,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -573,14 +574,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -588,7 +589,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -676,7 +677,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
   </cellStyles>
@@ -985,22 +986,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B50" sqref="B50"/>
+      <selection pane="bottomRight" activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" style="9" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1726,7 +1727,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="40.5">
+    <row r="59" spans="1:4" ht="42">
       <c r="A59" s="2">
         <v>53</v>
       </c>
@@ -2304,7 +2305,7 @@
         <v>102</v>
       </c>
       <c r="B108" s="15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>130</v>
@@ -2319,5 +2320,10 @@
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/kittyserver/gametools/parseExcelTool/Excel/Param.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/Param.xlsx
@@ -990,10 +990,10 @@
   <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C114" sqref="C114"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1250,7 +1250,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="2">
-        <v>10010033</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="8" t="s">

--- a/kittyserver/gametools/parseExcelTool/Excel/Param.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/Param.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\japan\Plan\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="参数表_3_param" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="133">
   <si>
     <t>id</t>
   </si>
@@ -218,8 +223,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>8</t>
@@ -228,8 +233,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>0000</t>
@@ -451,8 +456,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -527,8 +532,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>40000</t>
@@ -540,18 +545,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -559,7 +564,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -574,14 +579,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -589,9 +594,16 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -677,7 +689,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
   </cellStyles>
@@ -990,22 +1002,22 @@
   <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="50.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.375" style="9" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1033,7 +1045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1047,7 +1059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1070,7 +1082,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1093,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1095,7 +1107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -1109,7 +1121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -1123,7 +1135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -1135,7 +1147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -1147,7 +1159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -1159,7 +1171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>7</v>
       </c>
@@ -1171,7 +1183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>8</v>
       </c>
@@ -1183,7 +1195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>9</v>
       </c>
@@ -1195,7 +1207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>10</v>
       </c>
@@ -1207,7 +1219,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>11</v>
       </c>
@@ -1219,7 +1231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>12</v>
       </c>
@@ -1233,7 +1245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>13</v>
       </c>
@@ -1245,7 +1257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>14</v>
       </c>
@@ -1257,7 +1269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>15</v>
       </c>
@@ -1269,7 +1281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>16</v>
       </c>
@@ -1281,7 +1293,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>17</v>
       </c>
@@ -1293,7 +1305,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>18</v>
       </c>
@@ -1305,7 +1317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>19</v>
       </c>
@@ -1317,7 +1329,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>20</v>
       </c>
@@ -1329,7 +1341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>21</v>
       </c>
@@ -1341,7 +1353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>22</v>
       </c>
@@ -1353,7 +1365,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>23</v>
       </c>
@@ -1365,7 +1377,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>24</v>
       </c>
@@ -1377,7 +1389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>25</v>
       </c>
@@ -1389,7 +1401,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>26</v>
       </c>
@@ -1401,7 +1413,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>27</v>
       </c>
@@ -1413,7 +1425,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>28</v>
       </c>
@@ -1425,7 +1437,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>29</v>
       </c>
@@ -1437,7 +1449,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>30</v>
       </c>
@@ -1451,7 +1463,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>31</v>
       </c>
@@ -1463,7 +1475,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>32</v>
       </c>
@@ -1475,7 +1487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>33</v>
       </c>
@@ -1487,7 +1499,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>34</v>
       </c>
@@ -1499,7 +1511,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>35</v>
       </c>
@@ -1511,7 +1523,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>36</v>
       </c>
@@ -1523,7 +1535,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>37</v>
       </c>
@@ -1535,7 +1547,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>38</v>
       </c>
@@ -1547,7 +1559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>39</v>
       </c>
@@ -1559,7 +1571,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>40</v>
       </c>
@@ -1571,7 +1583,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>41</v>
       </c>
@@ -1585,7 +1597,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>42</v>
       </c>
@@ -1597,7 +1609,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>43</v>
       </c>
@@ -1611,7 +1623,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>44</v>
       </c>
@@ -1625,7 +1637,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>45</v>
       </c>
@@ -1639,7 +1651,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>46</v>
       </c>
@@ -1653,7 +1665,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>47</v>
       </c>
@@ -1665,7 +1677,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>48</v>
       </c>
@@ -1677,7 +1689,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>49</v>
       </c>
@@ -1689,7 +1701,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>50</v>
       </c>
@@ -1701,7 +1713,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>51</v>
       </c>
@@ -1715,7 +1727,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>52</v>
       </c>
@@ -1727,7 +1739,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="42">
+    <row r="59" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>53</v>
       </c>
@@ -1741,7 +1753,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>54</v>
       </c>
@@ -1755,7 +1767,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>55</v>
       </c>
@@ -1767,7 +1779,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>56</v>
       </c>
@@ -1779,7 +1791,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>57</v>
       </c>
@@ -1791,7 +1803,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>58</v>
       </c>
@@ -1803,7 +1815,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>59</v>
       </c>
@@ -1815,7 +1827,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>60</v>
       </c>
@@ -1829,7 +1841,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>61</v>
       </c>
@@ -1840,7 +1852,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>62</v>
       </c>
@@ -1851,7 +1863,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>63</v>
       </c>
@@ -1862,7 +1874,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>64</v>
       </c>
@@ -1874,7 +1886,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>65</v>
       </c>
@@ -1886,7 +1898,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>66</v>
       </c>
@@ -1897,7 +1909,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>67</v>
       </c>
@@ -1908,7 +1920,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>68</v>
       </c>
@@ -1919,7 +1931,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>69</v>
       </c>
@@ -1930,7 +1942,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>70</v>
       </c>
@@ -1941,7 +1953,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>71</v>
       </c>
@@ -1952,7 +1964,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>72</v>
       </c>
@@ -1963,7 +1975,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>73</v>
       </c>
@@ -1977,7 +1989,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>74</v>
       </c>
@@ -1988,7 +2000,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>75</v>
       </c>
@@ -1999,7 +2011,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>76</v>
       </c>
@@ -2010,7 +2022,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>77</v>
       </c>
@@ -2021,7 +2033,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="2" customFormat="1">
+    <row r="84" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>78</v>
       </c>
@@ -2032,7 +2044,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>79</v>
       </c>
@@ -2043,7 +2055,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>80</v>
       </c>
@@ -2054,7 +2066,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="16" customFormat="1">
+    <row r="87" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="15">
         <v>81</v>
       </c>
@@ -2065,7 +2077,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="16" customFormat="1">
+    <row r="88" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="15">
         <v>82</v>
       </c>
@@ -2076,7 +2088,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="16" customFormat="1">
+    <row r="89" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="15">
         <v>83</v>
       </c>
@@ -2087,7 +2099,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="16" customFormat="1">
+    <row r="90" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="15">
         <v>84</v>
       </c>
@@ -2098,7 +2110,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="15">
         <v>85</v>
       </c>
@@ -2109,7 +2121,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="15">
         <v>86</v>
       </c>
@@ -2120,7 +2132,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="15">
         <v>87</v>
       </c>
@@ -2134,7 +2146,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="15">
         <v>88</v>
       </c>
@@ -2148,7 +2160,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="15">
         <v>89</v>
       </c>
@@ -2162,7 +2174,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="15">
         <v>90</v>
       </c>
@@ -2176,7 +2188,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="15">
         <v>91</v>
       </c>
@@ -2187,7 +2199,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="15">
         <v>92</v>
       </c>
@@ -2198,7 +2210,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="15">
         <v>93</v>
       </c>
@@ -2209,7 +2221,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="15">
         <v>94</v>
       </c>
@@ -2220,7 +2232,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="15">
         <v>95</v>
       </c>
@@ -2231,7 +2243,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="15">
         <v>96</v>
       </c>
@@ -2242,7 +2254,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="15">
         <v>97</v>
       </c>
@@ -2253,7 +2265,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="15">
         <v>98</v>
       </c>
@@ -2264,7 +2276,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="15">
         <v>99</v>
       </c>
@@ -2275,7 +2287,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="15">
         <v>100</v>
       </c>
@@ -2286,7 +2298,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="15">
         <v>101</v>
       </c>
@@ -2300,7 +2312,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="15">
         <v>102</v>
       </c>
